--- a/results/selectednetworks.xlsx
+++ b/results/selectednetworks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -88,6 +88,24 @@
     <t>RF0</t>
   </si>
   <si>
+    <t>MLP2aP3D1R</t>
+  </si>
+  <si>
+    <t>MLP2aP3D0R</t>
+  </si>
+  <si>
+    <t>MLP2nP2D0R</t>
+  </si>
+  <si>
+    <t>CNN2nP2D0R</t>
+  </si>
+  <si>
+    <t>LSTM2nP2D0R</t>
+  </si>
+  <si>
+    <t>RF2</t>
+  </si>
+  <si>
     <t>MLP7D030P0</t>
   </si>
   <si>
@@ -112,7 +130,16 @@
     <t>MLP8D0100P0</t>
   </si>
   <si>
-    <t>preles2008</t>
+    <t>preles2008hy</t>
+  </si>
+  <si>
+    <t>preles2008bk</t>
+  </si>
+  <si>
+    <t>mlp0nP2D0Rbs</t>
+  </si>
+  <si>
+    <t>prelesbs</t>
   </si>
   <si>
     <t>mlp</t>
@@ -133,13 +160,16 @@
     <t>selected</t>
   </si>
   <si>
-    <t>randomforest</t>
+    <t>architecture_search</t>
   </si>
   <si>
     <t>pretraining</t>
   </si>
   <si>
     <t>processmodel</t>
+  </si>
+  <si>
+    <t>borealsitesprediction</t>
   </si>
 </sst>
 </file>
@@ -497,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,7 +582,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -579,7 +609,7 @@
         <v>0.4867032170295715</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -590,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -617,7 +647,7 @@
         <v>0.475677102804184</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -628,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -655,7 +685,7 @@
         <v>0.4924018383026123</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -666,7 +696,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -693,7 +723,7 @@
         <v>0.4637706279754639</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -704,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -731,7 +761,7 @@
         <v>0.4738454222679138</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -742,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -769,7 +799,7 @@
         <v>0.4912989139556885</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -780,7 +810,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -807,7 +837,7 @@
         <v>0.4661184251308441</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -818,7 +848,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -845,7 +875,7 @@
         <v>0.4698392748832703</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -856,7 +886,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -883,7 +913,7 @@
         <v>0.8241565823554993</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -894,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -921,7 +951,7 @@
         <v>0.7848275899887085</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -932,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -950,7 +980,7 @@
         <v>0.471043460239115</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -961,37 +991,34 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>30</v>
-      </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J13">
-        <v>1.369324326515198</v>
+        <v>1.379218339920044</v>
       </c>
       <c r="K13">
-        <v>1.58485734462738</v>
+        <v>2.12820816040039</v>
       </c>
       <c r="L13">
-        <v>0.6471161842346191</v>
+        <v>1.576656341552734</v>
       </c>
       <c r="M13">
-        <v>0.6471161842346191</v>
+        <v>1.576656341552734</v>
       </c>
       <c r="N13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1002,37 +1029,34 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J14">
-        <v>1.405500769615173</v>
+        <v>1.356328010559082</v>
       </c>
       <c r="K14">
-        <v>1.511763334274292</v>
+        <v>1.953316330909729</v>
       </c>
       <c r="L14">
-        <v>0.6225002408027649</v>
+        <v>1.425268888473511</v>
       </c>
       <c r="M14">
-        <v>0.6225002408027649</v>
+        <v>1.425268888473511</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1043,37 +1067,34 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="J15">
-        <v>1.392964839935303</v>
+        <v>1.218623042106628</v>
       </c>
       <c r="K15">
-        <v>1.474447011947632</v>
+        <v>1.931608915328979</v>
       </c>
       <c r="L15">
-        <v>0.5971564054489136</v>
+        <v>1.40399432182312</v>
       </c>
       <c r="M15">
-        <v>0.5971564054489136</v>
+        <v>1.40399432182312</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1084,37 +1105,34 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="J16">
-        <v>1.412371277809143</v>
+        <v>1.818891525268555</v>
       </c>
       <c r="K16">
-        <v>1.479416847229004</v>
+        <v>2.689780950546265</v>
       </c>
       <c r="L16">
-        <v>0.5784268975257874</v>
+        <v>2.058792591094971</v>
       </c>
       <c r="M16">
-        <v>0.5784268975257874</v>
+        <v>2.058792591094971</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1125,37 +1143,34 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J17">
-        <v>1.280858159065247</v>
+        <v>1.861822128295898</v>
       </c>
       <c r="K17">
-        <v>1.571866273880005</v>
+        <v>2.64080286026001</v>
       </c>
       <c r="L17">
-        <v>0.5715242624282837</v>
+        <v>2.015515565872192</v>
       </c>
       <c r="M17">
-        <v>0.5715242624282837</v>
+        <v>2.015515565872192</v>
       </c>
       <c r="N17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1166,37 +1181,28 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>50000</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>1.381091356277466</v>
+        <v>0.460309834240309</v>
       </c>
       <c r="K18">
-        <v>1.577436804771423</v>
+        <v>0.7486888345094803</v>
       </c>
       <c r="L18">
-        <v>0.5808306336402893</v>
+        <v>0.2712954899951439</v>
       </c>
       <c r="M18">
-        <v>0.5808306336402893</v>
+        <v>0.4650816831083652</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1207,37 +1213,37 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J19">
-        <v>1.424986124038696</v>
+        <v>1.369324326515198</v>
       </c>
       <c r="K19">
-        <v>1.523117899894714</v>
+        <v>1.58485734462738</v>
       </c>
       <c r="L19">
-        <v>0.5889738798141479</v>
+        <v>0.6471161842346191</v>
       </c>
       <c r="M19">
-        <v>0.5889738798141479</v>
+        <v>0.6471161842346191</v>
       </c>
       <c r="N19" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1248,37 +1254,37 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="J20">
-        <v>1.425348401069641</v>
+        <v>1.405500769615173</v>
       </c>
       <c r="K20">
-        <v>1.526179552078247</v>
+        <v>1.511763334274292</v>
       </c>
       <c r="L20">
-        <v>0.5742737054824829</v>
+        <v>0.6225002408027649</v>
       </c>
       <c r="M20">
-        <v>0.5742737054824829</v>
+        <v>0.6225002408027649</v>
       </c>
       <c r="N20" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1289,22 +1295,346 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>60000</v>
+      </c>
+      <c r="J21">
+        <v>1.392964839935303</v>
+      </c>
+      <c r="K21">
+        <v>1.474447011947632</v>
+      </c>
+      <c r="L21">
+        <v>0.5971564054489136</v>
+      </c>
+      <c r="M21">
+        <v>0.5971564054489136</v>
+      </c>
+      <c r="N21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>80000</v>
+      </c>
+      <c r="J22">
+        <v>1.412371277809143</v>
+      </c>
+      <c r="K22">
+        <v>1.479416847229004</v>
+      </c>
+      <c r="L22">
+        <v>0.5784268975257874</v>
+      </c>
+      <c r="M22">
+        <v>0.5784268975257874</v>
+      </c>
+      <c r="N22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>50000</v>
+      </c>
+      <c r="J23">
+        <v>1.280858159065247</v>
+      </c>
+      <c r="K23">
+        <v>1.571866273880005</v>
+      </c>
+      <c r="L23">
+        <v>0.5715242624282837</v>
+      </c>
+      <c r="M23">
+        <v>0.5715242624282837</v>
+      </c>
+      <c r="N23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>50000</v>
+      </c>
+      <c r="J24">
+        <v>1.381091356277466</v>
+      </c>
+      <c r="K24">
+        <v>1.577436804771423</v>
+      </c>
+      <c r="L24">
+        <v>0.5808306336402893</v>
+      </c>
+      <c r="M24">
+        <v>0.5808306336402893</v>
+      </c>
+      <c r="N24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>60000</v>
+      </c>
+      <c r="J25">
+        <v>1.424986124038696</v>
+      </c>
+      <c r="K25">
+        <v>1.523117899894714</v>
+      </c>
+      <c r="L25">
+        <v>0.5889738798141479</v>
+      </c>
+      <c r="M25">
+        <v>0.5889738798141479</v>
+      </c>
+      <c r="N25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="J21">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>80000</v>
+      </c>
+      <c r="J26">
+        <v>1.425348401069641</v>
+      </c>
+      <c r="K26">
+        <v>1.526179552078247</v>
+      </c>
+      <c r="L26">
+        <v>0.5742737054824829</v>
+      </c>
+      <c r="M26">
+        <v>0.5742737054824829</v>
+      </c>
+      <c r="N26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>1.233824349729843</v>
       </c>
-      <c r="K21">
+      <c r="K27">
         <v>1.357822380127588</v>
       </c>
-      <c r="L21">
+      <c r="L27">
         <v>0.7645135423199171</v>
       </c>
-      <c r="M21">
+      <c r="M27">
         <v>0.8625358425384447</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>3.126886912605822</v>
+      </c>
+      <c r="K28">
+        <v>3.329463433960293</v>
+      </c>
+      <c r="L28">
+        <v>2.367208924018711</v>
+      </c>
+      <c r="M28">
+        <v>2.558613191546635</v>
+      </c>
+      <c r="N28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>0.7071548871534311</v>
+      </c>
+      <c r="M29">
+        <v>0.5081766289410362</v>
+      </c>
+      <c r="N29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.6688095868566116</v>
+      </c>
+      <c r="M30">
+        <v>0.4229790817339437</v>
+      </c>
+      <c r="N30" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/results/selectednetworks.xlsx
+++ b/results/selectednetworks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>RF2</t>
+  </si>
+  <si>
+    <t>MLP6D030P0</t>
+  </si>
+  <si>
+    <t>MLP6D050P0</t>
+  </si>
+  <si>
+    <t>MLP6D070P0</t>
+  </si>
+  <si>
+    <t>MLP6D0100P0</t>
+  </si>
+  <si>
+    <t>MLP6D130P0</t>
+  </si>
+  <si>
+    <t>MLP6D150P0</t>
+  </si>
+  <si>
+    <t>MLP6D170P0</t>
+  </si>
+  <si>
+    <t>MLP6D1100P0</t>
   </si>
   <si>
     <t>MLP7D030P0</t>
@@ -527,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -609,7 +633,7 @@
         <v>0.4867032170295715</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -620,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -647,7 +671,7 @@
         <v>0.475677102804184</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -658,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -685,7 +709,7 @@
         <v>0.4924018383026123</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -696,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -723,7 +747,7 @@
         <v>0.4637706279754639</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -734,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -761,7 +785,7 @@
         <v>0.4738454222679138</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -772,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -799,7 +823,7 @@
         <v>0.4912989139556885</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -810,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -837,7 +861,7 @@
         <v>0.4661184251308441</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -848,7 +872,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -875,7 +899,7 @@
         <v>0.4698392748832703</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -886,7 +910,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -913,7 +937,7 @@
         <v>0.8241565823554993</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -924,7 +948,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -951,7 +975,7 @@
         <v>0.7848275899887085</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -962,7 +986,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -980,7 +1004,7 @@
         <v>0.471043460239115</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -991,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1018,7 +1042,7 @@
         <v>1.576656341552734</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1029,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1056,7 +1080,7 @@
         <v>1.425268888473511</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1067,7 +1091,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1094,7 +1118,7 @@
         <v>1.40399432182312</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1105,7 +1129,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1132,7 +1156,7 @@
         <v>2.058792591094971</v>
       </c>
       <c r="N16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1143,7 +1167,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1170,7 +1194,7 @@
         <v>2.015515565872192</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1181,7 +1205,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1202,7 +1226,7 @@
         <v>0.4650816831083652</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1213,10 +1237,10 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1225,25 +1249,25 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J19">
-        <v>1.369324326515198</v>
+        <v>0.2105832099914551</v>
       </c>
       <c r="K19">
-        <v>1.58485734462738</v>
+        <v>0.2114661484956741</v>
       </c>
       <c r="L19">
-        <v>0.6471161842346191</v>
+        <v>0.1283347606658936</v>
       </c>
       <c r="M19">
-        <v>0.6471161842346191</v>
+        <v>0.1288321763277054</v>
       </c>
       <c r="N19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1254,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1266,25 +1290,25 @@
         <v>50</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="J20">
-        <v>1.405500769615173</v>
+        <v>0.2000058442354203</v>
       </c>
       <c r="K20">
-        <v>1.511763334274292</v>
+        <v>0.2017096728086472</v>
       </c>
       <c r="L20">
-        <v>0.6225002408027649</v>
+        <v>0.121207594871521</v>
       </c>
       <c r="M20">
-        <v>0.6225002408027649</v>
+        <v>0.1223251223564148</v>
       </c>
       <c r="N20" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1295,10 +1319,10 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1307,25 +1331,25 @@
         <v>70</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="J21">
-        <v>1.392964839935303</v>
+        <v>0.1975597441196441</v>
       </c>
       <c r="K21">
-        <v>1.474447011947632</v>
+        <v>0.1998907178640366</v>
       </c>
       <c r="L21">
-        <v>0.5971564054489136</v>
+        <v>0.1172986179590225</v>
       </c>
       <c r="M21">
-        <v>0.5971564054489136</v>
+        <v>0.1185832843184471</v>
       </c>
       <c r="N21" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1336,10 +1360,10 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1348,25 +1372,25 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="J22">
-        <v>1.412371277809143</v>
+        <v>0.1982558071613312</v>
       </c>
       <c r="K22">
-        <v>1.479416847229004</v>
+        <v>0.2000072449445724</v>
       </c>
       <c r="L22">
-        <v>0.5784268975257874</v>
+        <v>0.1172549277544021</v>
       </c>
       <c r="M22">
-        <v>0.5784268975257874</v>
+        <v>0.1180950850248337</v>
       </c>
       <c r="N22" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1377,10 +1401,10 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1389,25 +1413,25 @@
         <v>30</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J23">
-        <v>1.280858159065247</v>
+        <v>0.2866075038909912</v>
       </c>
       <c r="K23">
-        <v>1.571866273880005</v>
+        <v>0.2878729701042175</v>
       </c>
       <c r="L23">
-        <v>0.5715242624282837</v>
+        <v>0.1839323937892914</v>
       </c>
       <c r="M23">
-        <v>0.5715242624282837</v>
+        <v>0.1848417073488235</v>
       </c>
       <c r="N23" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1418,10 +1442,10 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1430,25 +1454,25 @@
         <v>50</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="J24">
-        <v>1.381091356277466</v>
+        <v>0.2964401841163635</v>
       </c>
       <c r="K24">
-        <v>1.577436804771423</v>
+        <v>0.2975829541683197</v>
       </c>
       <c r="L24">
-        <v>0.5808306336402893</v>
+        <v>0.1902072876691819</v>
       </c>
       <c r="M24">
-        <v>0.5808306336402893</v>
+        <v>0.1909065693616867</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1459,10 +1483,10 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1471,25 +1495,25 @@
         <v>70</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="J25">
-        <v>1.424986124038696</v>
+        <v>0.3012393414974213</v>
       </c>
       <c r="K25">
-        <v>1.523117899894714</v>
+        <v>0.3023898601531982</v>
       </c>
       <c r="L25">
-        <v>0.5889738798141479</v>
+        <v>0.1892169117927552</v>
       </c>
       <c r="M25">
-        <v>0.5889738798141479</v>
+        <v>0.1902729719877243</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1500,10 +1524,10 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -1512,25 +1536,25 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="J26">
-        <v>1.425348401069641</v>
+        <v>0.3009843826293945</v>
       </c>
       <c r="K26">
-        <v>1.526179552078247</v>
+        <v>0.302109956741333</v>
       </c>
       <c r="L26">
-        <v>0.5742737054824829</v>
+        <v>0.1900999248027801</v>
       </c>
       <c r="M26">
-        <v>0.5742737054824829</v>
+        <v>0.190864771604538</v>
       </c>
       <c r="N26" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1541,25 +1565,37 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>50000</v>
       </c>
       <c r="J27">
-        <v>1.233824349729843</v>
+        <v>1.369324326515198</v>
       </c>
       <c r="K27">
-        <v>1.357822380127588</v>
+        <v>1.58485734462738</v>
       </c>
       <c r="L27">
-        <v>0.7645135423199171</v>
+        <v>0.5633760690689087</v>
       </c>
       <c r="M27">
-        <v>0.8625358425384447</v>
+        <v>0.6471161842346191</v>
       </c>
       <c r="N27" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1570,25 +1606,37 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>50000</v>
       </c>
       <c r="J28">
-        <v>3.126886912605822</v>
+        <v>1.405500769615173</v>
       </c>
       <c r="K28">
-        <v>3.329463433960293</v>
+        <v>1.511763334274292</v>
       </c>
       <c r="L28">
-        <v>2.367208924018711</v>
+        <v>0.5837810039520264</v>
       </c>
       <c r="M28">
-        <v>2.558613191546635</v>
+        <v>0.6225002408027649</v>
       </c>
       <c r="N28" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1599,22 +1647,37 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>70</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>60000</v>
+      </c>
+      <c r="J29">
+        <v>1.392964839935303</v>
       </c>
       <c r="K29">
-        <v>0.7071548871534311</v>
+        <v>1.474447011947632</v>
+      </c>
+      <c r="L29">
+        <v>0.5669248700141907</v>
       </c>
       <c r="M29">
-        <v>0.5081766289410362</v>
+        <v>0.5971564054489136</v>
       </c>
       <c r="N29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1625,16 +1688,305 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>80000</v>
+      </c>
+      <c r="J30">
+        <v>1.412371277809143</v>
+      </c>
+      <c r="K30">
+        <v>1.479416847229004</v>
+      </c>
+      <c r="L30">
+        <v>0.5545896291732788</v>
+      </c>
+      <c r="M30">
+        <v>0.5784268975257874</v>
+      </c>
+      <c r="N30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>50000</v>
+      </c>
+      <c r="J31">
+        <v>1.280858159065247</v>
+      </c>
+      <c r="K31">
+        <v>1.571866273880005</v>
+      </c>
+      <c r="L31">
+        <v>0.5020025968551636</v>
+      </c>
+      <c r="M31">
+        <v>0.5715242624282837</v>
+      </c>
+      <c r="N31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>50000</v>
+      </c>
+      <c r="J32">
+        <v>1.381091356277466</v>
+      </c>
+      <c r="K32">
+        <v>1.577436804771423</v>
+      </c>
+      <c r="L32">
+        <v>0.5347433686256409</v>
+      </c>
+      <c r="M32">
+        <v>0.5808306336402893</v>
+      </c>
+      <c r="N32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>70</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>60000</v>
+      </c>
+      <c r="J33">
+        <v>1.424986124038696</v>
+      </c>
+      <c r="K33">
+        <v>1.523117899894714</v>
+      </c>
+      <c r="L33">
+        <v>0.5621580481529236</v>
+      </c>
+      <c r="M33">
+        <v>0.5889738798141479</v>
+      </c>
+      <c r="N33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>80000</v>
+      </c>
+      <c r="J34">
+        <v>1.425348401069641</v>
+      </c>
+      <c r="K34">
+        <v>1.526179552078247</v>
+      </c>
+      <c r="L34">
+        <v>0.5523317456245422</v>
+      </c>
+      <c r="M34">
+        <v>0.5742737054824829</v>
+      </c>
+      <c r="N34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>46</v>
       </c>
-      <c r="K30">
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.233824349729843</v>
+      </c>
+      <c r="K35">
+        <v>1.357822380127588</v>
+      </c>
+      <c r="L35">
+        <v>0.7645135423199171</v>
+      </c>
+      <c r="M35">
+        <v>0.8625358425384447</v>
+      </c>
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>3.126886912605822</v>
+      </c>
+      <c r="K36">
+        <v>3.329463433960293</v>
+      </c>
+      <c r="L36">
+        <v>2.367208924018711</v>
+      </c>
+      <c r="M36">
+        <v>2.558613191546635</v>
+      </c>
+      <c r="N36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>0.7071548871534311</v>
+      </c>
+      <c r="M37">
+        <v>0.5081766289410362</v>
+      </c>
+      <c r="N37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38">
         <v>0.6688095868566116</v>
       </c>
-      <c r="M30">
+      <c r="M38">
         <v>0.4229790817339437</v>
       </c>
-      <c r="N30" t="s">
-        <v>51</v>
+      <c r="N38" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/results/selectednetworks.xlsx
+++ b/results/selectednetworks.xlsx
@@ -1928,16 +1928,16 @@
         <v>2</v>
       </c>
       <c r="J36">
-        <v>3.126886912605822</v>
+        <v>3.98973225355808</v>
       </c>
       <c r="K36">
-        <v>3.329463433960293</v>
+        <v>3.863054209156559</v>
       </c>
       <c r="L36">
-        <v>2.367208924018711</v>
+        <v>3.277443904642548</v>
       </c>
       <c r="M36">
-        <v>2.558613191546635</v>
+        <v>3.174425371108237</v>
       </c>
       <c r="N36" t="s">
         <v>58</v>

--- a/results/selectednetworks.xlsx
+++ b/results/selectednetworks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +152,30 @@
   </si>
   <si>
     <t>MLP8D0100P0</t>
+  </si>
+  <si>
+    <t>MLP9DD030P0</t>
+  </si>
+  <si>
+    <t>MLP9DD050P0</t>
+  </si>
+  <si>
+    <t>MLP9DD070P0</t>
+  </si>
+  <si>
+    <t>MLP9DD0100P0</t>
+  </si>
+  <si>
+    <t>MLP10DD030P0</t>
+  </si>
+  <si>
+    <t>MLP10DD050P0</t>
+  </si>
+  <si>
+    <t>MLP10DD070P0</t>
+  </si>
+  <si>
+    <t>MLP10DD0100P0</t>
   </si>
   <si>
     <t>preles2008hy</t>
@@ -551,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -633,7 +657,7 @@
         <v>0.4867032170295715</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -644,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -671,7 +695,7 @@
         <v>0.475677102804184</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -682,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -709,7 +733,7 @@
         <v>0.4924018383026123</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -720,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -747,7 +771,7 @@
         <v>0.4637706279754639</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -785,7 +809,7 @@
         <v>0.4738454222679138</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -796,7 +820,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -823,7 +847,7 @@
         <v>0.4912989139556885</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -834,7 +858,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -861,7 +885,7 @@
         <v>0.4661184251308441</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -872,7 +896,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -899,7 +923,7 @@
         <v>0.4698392748832703</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -910,7 +934,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -937,7 +961,7 @@
         <v>0.8241565823554993</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -948,7 +972,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -975,7 +999,7 @@
         <v>0.7848275899887085</v>
       </c>
       <c r="N11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -986,7 +1010,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1004,7 +1028,7 @@
         <v>0.471043460239115</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1015,7 +1039,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1042,7 +1066,7 @@
         <v>1.576656341552734</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1053,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1080,7 +1104,7 @@
         <v>1.425268888473511</v>
       </c>
       <c r="N14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1091,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1118,7 +1142,7 @@
         <v>1.40399432182312</v>
       </c>
       <c r="N15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1129,7 +1153,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1156,7 +1180,7 @@
         <v>2.058792591094971</v>
       </c>
       <c r="N16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1167,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1194,7 +1218,7 @@
         <v>2.015515565872192</v>
       </c>
       <c r="N17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1205,7 +1229,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1226,7 +1250,7 @@
         <v>0.4650816831083652</v>
       </c>
       <c r="N18" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1237,13 +1261,13 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>30</v>
@@ -1267,7 +1291,7 @@
         <v>0.1288321763277054</v>
       </c>
       <c r="N19" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1278,13 +1302,13 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>50</v>
@@ -1308,7 +1332,7 @@
         <v>0.1223251223564148</v>
       </c>
       <c r="N20" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1319,13 +1343,13 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>70</v>
@@ -1349,7 +1373,7 @@
         <v>0.1185832843184471</v>
       </c>
       <c r="N21" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1360,13 +1384,13 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>100</v>
@@ -1390,7 +1414,7 @@
         <v>0.1180950850248337</v>
       </c>
       <c r="N22" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1401,13 +1425,13 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>6</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1431,7 +1455,7 @@
         <v>0.1848417073488235</v>
       </c>
       <c r="N23" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1442,13 +1466,13 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -1472,7 +1496,7 @@
         <v>0.1909065693616867</v>
       </c>
       <c r="N24" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1483,13 +1507,13 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>70</v>
@@ -1513,7 +1537,7 @@
         <v>0.1902729719877243</v>
       </c>
       <c r="N25" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1524,13 +1548,13 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>100</v>
@@ -1554,7 +1578,7 @@
         <v>0.190864771604538</v>
       </c>
       <c r="N26" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1565,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>7</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1595,7 +1619,7 @@
         <v>0.6471161842346191</v>
       </c>
       <c r="N27" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1606,13 +1630,13 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <v>50</v>
@@ -1636,7 +1660,7 @@
         <v>0.6225002408027649</v>
       </c>
       <c r="N28" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1647,13 +1671,13 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>70</v>
@@ -1677,7 +1701,7 @@
         <v>0.5971564054489136</v>
       </c>
       <c r="N29" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1688,13 +1712,13 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -1718,7 +1742,7 @@
         <v>0.5784268975257874</v>
       </c>
       <c r="N30" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1729,13 +1753,13 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1759,7 +1783,7 @@
         <v>0.5715242624282837</v>
       </c>
       <c r="N31" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1770,13 +1794,13 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>50</v>
@@ -1800,7 +1824,7 @@
         <v>0.5808306336402893</v>
       </c>
       <c r="N32" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1811,13 +1835,13 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>70</v>
@@ -1841,7 +1865,7 @@
         <v>0.5889738798141479</v>
       </c>
       <c r="N33" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1852,13 +1876,13 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>100</v>
@@ -1882,7 +1906,7 @@
         <v>0.5742737054824829</v>
       </c>
       <c r="N34" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1893,25 +1917,37 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>10000</v>
       </c>
       <c r="J35">
-        <v>1.233824349729843</v>
+        <v>0.2588068842887878</v>
       </c>
       <c r="K35">
-        <v>1.357822380127588</v>
+        <v>0.2693620622158051</v>
       </c>
       <c r="L35">
-        <v>0.7645135423199171</v>
+        <v>0.1721338629722595</v>
       </c>
       <c r="M35">
-        <v>0.8625358425384447</v>
+        <v>0.1792676001787185</v>
       </c>
       <c r="N35" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1922,25 +1958,37 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>20000</v>
       </c>
       <c r="J36">
-        <v>3.98973225355808</v>
+        <v>0.240572452545166</v>
       </c>
       <c r="K36">
-        <v>3.863054209156559</v>
+        <v>0.2378727495670319</v>
       </c>
       <c r="L36">
-        <v>3.277443904642548</v>
+        <v>0.1609509885311127</v>
       </c>
       <c r="M36">
-        <v>3.174425371108237</v>
+        <v>0.1590951681137085</v>
       </c>
       <c r="N36" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1951,22 +1999,37 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>30000</v>
+      </c>
+      <c r="J37">
+        <v>0.2323575317859649</v>
+      </c>
       <c r="K37">
-        <v>0.7071548871534311</v>
+        <v>0.233847975730896</v>
+      </c>
+      <c r="L37">
+        <v>0.1544671356678009</v>
       </c>
       <c r="M37">
-        <v>0.5081766289410362</v>
+        <v>0.1552767753601074</v>
       </c>
       <c r="N37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -1977,16 +2040,305 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>40000</v>
+      </c>
+      <c r="J38">
+        <v>0.2097567021846771</v>
+      </c>
+      <c r="K38">
+        <v>0.2088469266891479</v>
+      </c>
+      <c r="L38">
+        <v>0.1358418017625809</v>
+      </c>
+      <c r="M38">
+        <v>0.1350011229515075</v>
+      </c>
+      <c r="N38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>10000</v>
+      </c>
+      <c r="J39">
+        <v>1.960571050643921</v>
+      </c>
+      <c r="K39">
+        <v>1.908050298690796</v>
+      </c>
+      <c r="L39">
+        <v>0.9066921472549438</v>
+      </c>
+      <c r="M39">
+        <v>0.9101401567459106</v>
+      </c>
+      <c r="N39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>20000</v>
+      </c>
+      <c r="J40">
+        <v>2.085132598876953</v>
+      </c>
+      <c r="K40">
+        <v>2.08337926864624</v>
+      </c>
+      <c r="L40">
+        <v>1.002095460891724</v>
+      </c>
+      <c r="M40">
+        <v>1.008879899978638</v>
+      </c>
+      <c r="N40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>70</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>30000</v>
+      </c>
+      <c r="J41">
+        <v>2.028343200683594</v>
+      </c>
+      <c r="K41">
+        <v>2.028639554977417</v>
+      </c>
+      <c r="L41">
+        <v>0.9447653889656068</v>
+      </c>
+      <c r="M41">
+        <v>0.946832835674286</v>
+      </c>
+      <c r="N41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>40000</v>
+      </c>
+      <c r="J42">
+        <v>1.984005928039551</v>
+      </c>
+      <c r="K42">
+        <v>1.987738370895386</v>
+      </c>
+      <c r="L42">
+        <v>0.9705012440681458</v>
+      </c>
+      <c r="M42">
+        <v>0.9749662280082704</v>
+      </c>
+      <c r="N42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>54</v>
       </c>
-      <c r="K38">
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.233824349729843</v>
+      </c>
+      <c r="K43">
+        <v>1.357822380127588</v>
+      </c>
+      <c r="L43">
+        <v>0.7645135423199171</v>
+      </c>
+      <c r="M43">
+        <v>0.8625358425384447</v>
+      </c>
+      <c r="N43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>3.98973225355808</v>
+      </c>
+      <c r="K44">
+        <v>3.863054209156559</v>
+      </c>
+      <c r="L44">
+        <v>3.277443904642548</v>
+      </c>
+      <c r="M44">
+        <v>3.174425371108237</v>
+      </c>
+      <c r="N44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>0.7071548871534311</v>
+      </c>
+      <c r="M45">
+        <v>0.5081766289410362</v>
+      </c>
+      <c r="N45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46">
         <v>0.6688095868566116</v>
       </c>
-      <c r="M38">
+      <c r="M46">
         <v>0.4229790817339437</v>
       </c>
-      <c r="N38" t="s">
-        <v>59</v>
+      <c r="N46" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/results/selectednetworks.xlsx
+++ b/results/selectednetworks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -25,9 +25,6 @@
     <t>typ</t>
   </si>
   <si>
-    <t>architecture</t>
-  </si>
-  <si>
     <t>simsfrac</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
     <t>MLP0aP3D2S</t>
   </si>
   <si>
+    <t>MLP4nP1D0R</t>
+  </si>
+  <si>
     <t>CNN0nP2D0R</t>
   </si>
   <si>
@@ -106,6 +106,18 @@
     <t>RF2</t>
   </si>
   <si>
+    <t>MLP5DD030P0</t>
+  </si>
+  <si>
+    <t>MLP5DD050P0</t>
+  </si>
+  <si>
+    <t>MLP5DD070P0</t>
+  </si>
+  <si>
+    <t>MLP5DD0100P0</t>
+  </si>
+  <si>
     <t>MLP6D030P0</t>
   </si>
   <si>
@@ -118,18 +130,6 @@
     <t>MLP6D0100P0</t>
   </si>
   <si>
-    <t>MLP6D130P0</t>
-  </si>
-  <si>
-    <t>MLP6D150P0</t>
-  </si>
-  <si>
-    <t>MLP6D170P0</t>
-  </si>
-  <si>
-    <t>MLP6D1100P0</t>
-  </si>
-  <si>
     <t>MLP7D030P0</t>
   </si>
   <si>
@@ -176,6 +176,30 @@
   </si>
   <si>
     <t>MLP10DD0100P0</t>
+  </si>
+  <si>
+    <t>MLP11DD030P0</t>
+  </si>
+  <si>
+    <t>MLP11DD050P0</t>
+  </si>
+  <si>
+    <t>MLP11DD070P0</t>
+  </si>
+  <si>
+    <t>MLP11DD0100P0</t>
+  </si>
+  <si>
+    <t>MLP12DD030P0</t>
+  </si>
+  <si>
+    <t>MLP12DD050P0</t>
+  </si>
+  <si>
+    <t>MLP12DD070P0</t>
+  </si>
+  <si>
+    <t>MLP12DD0100P0</t>
   </si>
   <si>
     <t>preles2008hy</t>
@@ -575,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,1727 +642,1943 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>2</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I2">
-        <v>10000</v>
+        <v>0.502784788608551</v>
       </c>
       <c r="J2">
-        <v>0.502784788608551</v>
+        <v>0.7629355788230896</v>
       </c>
       <c r="K2">
-        <v>0.7629355788230896</v>
+        <v>0.3007430136203766</v>
       </c>
       <c r="L2">
         <v>0.4867032170295715</v>
       </c>
-      <c r="M2">
-        <v>0.4867032170295715</v>
-      </c>
-      <c r="N2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I3">
-        <v>10000</v>
+        <v>0.4920576214790344</v>
       </c>
       <c r="J3">
-        <v>0.4920576214790344</v>
+        <v>0.74643874168396</v>
       </c>
       <c r="K3">
-        <v>0.74643874168396</v>
+        <v>0.2925815880298615</v>
       </c>
       <c r="L3">
         <v>0.475677102804184</v>
       </c>
-      <c r="M3">
-        <v>0.475677102804184</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>3</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I4">
-        <v>10000</v>
+        <v>0.6566911935806274</v>
       </c>
       <c r="J4">
-        <v>0.6566911935806274</v>
+        <v>0.7833381891250609</v>
       </c>
       <c r="K4">
-        <v>0.7833381891250609</v>
+        <v>0.3981676995754242</v>
       </c>
       <c r="L4">
         <v>0.4924018383026123</v>
       </c>
-      <c r="M4">
-        <v>0.4924018383026123</v>
-      </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>3</v>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I5">
-        <v>10000</v>
+        <v>0.6142827272415161</v>
       </c>
       <c r="J5">
-        <v>0.6142827272415161</v>
+        <v>0.7515823245048523</v>
       </c>
       <c r="K5">
-        <v>0.7515823245048523</v>
+        <v>0.3664533793926239</v>
       </c>
       <c r="L5">
         <v>0.4637706279754639</v>
       </c>
-      <c r="M5">
-        <v>0.4637706279754639</v>
-      </c>
-      <c r="N5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>3</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="I6">
-        <v>10000</v>
+        <v>0.6181010007858276</v>
       </c>
       <c r="J6">
-        <v>0.6181010007858276</v>
+        <v>0.7336056232452393</v>
       </c>
       <c r="K6">
-        <v>0.7336056232452393</v>
+        <v>0.3743324875831604</v>
       </c>
       <c r="L6">
         <v>0.4738454222679138</v>
       </c>
-      <c r="M6">
-        <v>0.4738454222679138</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>3</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="I7">
-        <v>10000</v>
+        <v>0.6610723733901978</v>
       </c>
       <c r="J7">
-        <v>0.6610723733901978</v>
+        <v>0.7827129364013672</v>
       </c>
       <c r="K7">
-        <v>0.7827129364013672</v>
+        <v>0.3949763178825377</v>
       </c>
       <c r="L7">
         <v>0.4912989139556885</v>
       </c>
-      <c r="M7">
-        <v>0.4912989139556885</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="I8">
-        <v>10000</v>
+        <v>0.6720488667488098</v>
       </c>
       <c r="J8">
-        <v>0.6720488667488098</v>
+        <v>0.7379122972488403</v>
       </c>
       <c r="K8">
-        <v>0.7379122972488403</v>
+        <v>0.4044058322906494</v>
       </c>
       <c r="L8">
         <v>0.4661184251308441</v>
       </c>
-      <c r="M8">
-        <v>0.4661184251308441</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>3</v>
+      <c r="G9">
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="I9">
-        <v>10000</v>
+        <v>0.6325932741165161</v>
       </c>
       <c r="J9">
-        <v>0.6325932741165161</v>
+        <v>0.7514798045158386</v>
       </c>
       <c r="K9">
-        <v>0.7514798045158386</v>
+        <v>0.3868086934089661</v>
       </c>
       <c r="L9">
         <v>0.4698392748832703</v>
       </c>
-      <c r="M9">
-        <v>0.4698392748832703</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I10">
-        <v>10000</v>
+        <v>0.5660109519958496</v>
       </c>
       <c r="J10">
-        <v>0.6911980509757996</v>
+        <v>0.7187660932540894</v>
       </c>
       <c r="K10">
-        <v>1.32979416847229</v>
+        <v>0.3378978073596954</v>
       </c>
       <c r="L10">
-        <v>0.8241565823554993</v>
-      </c>
-      <c r="M10">
-        <v>0.8241565823554993</v>
-      </c>
-      <c r="N10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.4574082493782044</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>2</v>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I11">
-        <v>10000</v>
+        <v>0.6911980509757996</v>
       </c>
       <c r="J11">
-        <v>0.7621762752532959</v>
+        <v>1.32979416847229</v>
       </c>
       <c r="K11">
-        <v>1.278318524360657</v>
+        <v>0.446113646030426</v>
       </c>
       <c r="L11">
-        <v>0.7848275899887085</v>
-      </c>
-      <c r="M11">
-        <v>0.7848275899887085</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.8241565823554993</v>
+      </c>
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>10000</v>
+      </c>
+      <c r="I12">
+        <v>1.141928911209106</v>
+      </c>
       <c r="J12">
-        <v>0.4524757705116624</v>
+        <v>1.226191759109497</v>
       </c>
       <c r="K12">
-        <v>0.7646869400037543</v>
+        <v>0.6981807947158813</v>
       </c>
       <c r="L12">
-        <v>0.2675646884543371</v>
-      </c>
-      <c r="M12">
-        <v>0.471043460239115</v>
-      </c>
-      <c r="N12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.7575036287307739</v>
+      </c>
+      <c r="M12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>10000</v>
+        <v>0.4524757705116624</v>
       </c>
       <c r="J13">
-        <v>1.379218339920044</v>
+        <v>0.7646869400037543</v>
       </c>
       <c r="K13">
-        <v>2.12820816040039</v>
+        <v>0.2675646884543371</v>
       </c>
       <c r="L13">
-        <v>1.576656341552734</v>
-      </c>
-      <c r="M13">
-        <v>1.576656341552734</v>
-      </c>
-      <c r="N13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.471043460239115</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>3</v>
+      <c r="G14">
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I14">
-        <v>10000</v>
+        <v>1.379218339920044</v>
       </c>
       <c r="J14">
-        <v>1.356328010559082</v>
+        <v>2.12820816040039</v>
       </c>
       <c r="K14">
-        <v>1.953316330909729</v>
+        <v>1.022807836532593</v>
       </c>
       <c r="L14">
-        <v>1.425268888473511</v>
-      </c>
-      <c r="M14">
-        <v>1.425268888473511</v>
-      </c>
-      <c r="N14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.576656341552734</v>
+      </c>
+      <c r="M14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>2</v>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I15">
-        <v>10000</v>
+        <v>1.356328010559082</v>
       </c>
       <c r="J15">
-        <v>1.218623042106628</v>
+        <v>1.953316330909729</v>
       </c>
       <c r="K15">
-        <v>1.931608915328979</v>
+        <v>0.984657883644104</v>
       </c>
       <c r="L15">
-        <v>1.40399432182312</v>
-      </c>
-      <c r="M15">
-        <v>1.40399432182312</v>
-      </c>
-      <c r="N15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.425268888473511</v>
+      </c>
+      <c r="M15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>2</v>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I16">
-        <v>10000</v>
+        <v>1.218623042106628</v>
       </c>
       <c r="J16">
-        <v>1.818891525268555</v>
+        <v>1.931608915328979</v>
       </c>
       <c r="K16">
-        <v>2.689780950546265</v>
+        <v>0.8782688975334167</v>
       </c>
       <c r="L16">
-        <v>2.058792591094971</v>
-      </c>
-      <c r="M16">
-        <v>2.058792591094971</v>
-      </c>
-      <c r="N16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.40399432182312</v>
+      </c>
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17">
-        <v>2</v>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I17">
-        <v>10000</v>
+        <v>1.818891525268555</v>
       </c>
       <c r="J17">
-        <v>1.861822128295898</v>
+        <v>2.689780950546265</v>
       </c>
       <c r="K17">
-        <v>2.64080286026001</v>
+        <v>1.387269496917725</v>
       </c>
       <c r="L17">
-        <v>2.015515565872192</v>
-      </c>
-      <c r="M17">
-        <v>2.015515565872192</v>
-      </c>
-      <c r="N17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>2.058792591094971</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>2</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>10000</v>
+      </c>
+      <c r="I18">
+        <v>1.861822128295898</v>
       </c>
       <c r="J18">
-        <v>0.460309834240309</v>
+        <v>2.64080286026001</v>
       </c>
       <c r="K18">
-        <v>0.7486888345094803</v>
+        <v>1.404577970504761</v>
       </c>
       <c r="L18">
-        <v>0.2712954899951439</v>
-      </c>
-      <c r="M18">
-        <v>0.4650816831083652</v>
-      </c>
-      <c r="N18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>2.015515565872192</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>30</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>10000</v>
+        <v>0.460309834240309</v>
       </c>
       <c r="J19">
-        <v>0.2105832099914551</v>
+        <v>0.7486888345094803</v>
       </c>
       <c r="K19">
-        <v>0.2114661484956741</v>
+        <v>0.2712954899951439</v>
       </c>
       <c r="L19">
-        <v>0.1283347606658936</v>
-      </c>
-      <c r="M19">
-        <v>0.1288321763277054</v>
-      </c>
-      <c r="N19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.4650816831083652</v>
+      </c>
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I20">
-        <v>20000</v>
+        <v>1.960236191749573</v>
       </c>
       <c r="J20">
-        <v>0.2000058442354203</v>
+        <v>1.92431902885437</v>
       </c>
       <c r="K20">
-        <v>0.2017096728086472</v>
+        <v>0.92955482006073</v>
       </c>
       <c r="L20">
-        <v>0.121207594871521</v>
-      </c>
-      <c r="M20">
-        <v>0.1223251223564148</v>
-      </c>
-      <c r="N20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.934414267539978</v>
+      </c>
+      <c r="M20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I21">
-        <v>30000</v>
+        <v>2.064065217971802</v>
       </c>
       <c r="J21">
-        <v>0.1975597441196441</v>
+        <v>2.056206226348877</v>
       </c>
       <c r="K21">
-        <v>0.1998907178640366</v>
+        <v>0.9736533164978028</v>
       </c>
       <c r="L21">
-        <v>0.1172986179590225</v>
-      </c>
-      <c r="M21">
-        <v>0.1185832843184471</v>
-      </c>
-      <c r="N21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9784852266311646</v>
+      </c>
+      <c r="M21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I22">
-        <v>40000</v>
+        <v>2.028879642486572</v>
       </c>
       <c r="J22">
-        <v>0.1982558071613312</v>
+        <v>2.031685590744019</v>
       </c>
       <c r="K22">
-        <v>0.2000072449445724</v>
+        <v>0.9744808077812196</v>
       </c>
       <c r="L22">
-        <v>0.1172549277544021</v>
-      </c>
-      <c r="M22">
-        <v>0.1180950850248337</v>
-      </c>
-      <c r="N22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9791692495346068</v>
+      </c>
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>30000</v>
       </c>
       <c r="I23">
-        <v>10000</v>
+        <v>1.986421823501587</v>
       </c>
       <c r="J23">
-        <v>0.2866075038909912</v>
+        <v>1.988365173339844</v>
       </c>
       <c r="K23">
-        <v>0.2878729701042175</v>
+        <v>0.940909743309021</v>
       </c>
       <c r="L23">
-        <v>0.1839323937892914</v>
-      </c>
-      <c r="M23">
-        <v>0.1848417073488235</v>
-      </c>
-      <c r="N23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9433463811874391</v>
+      </c>
+      <c r="M23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="I24">
-        <v>20000</v>
+        <v>0.1887483149766922</v>
       </c>
       <c r="J24">
-        <v>0.2964401841163635</v>
+        <v>0.1913899034261703</v>
       </c>
       <c r="K24">
-        <v>0.2975829541683197</v>
+        <v>0.1098367422819138</v>
       </c>
       <c r="L24">
-        <v>0.1902072876691819</v>
-      </c>
-      <c r="M24">
-        <v>0.1909065693616867</v>
-      </c>
-      <c r="N24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.1108893156051636</v>
+      </c>
+      <c r="M24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="I25">
-        <v>30000</v>
+        <v>0.1909389048814774</v>
       </c>
       <c r="J25">
-        <v>0.3012393414974213</v>
+        <v>0.1906672716140747</v>
       </c>
       <c r="K25">
-        <v>0.3023898601531982</v>
+        <v>0.1132452860474586</v>
       </c>
       <c r="L25">
-        <v>0.1892169117927552</v>
-      </c>
-      <c r="M25">
-        <v>0.1902729719877243</v>
-      </c>
-      <c r="N25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>0.1133355721831321</v>
+      </c>
+      <c r="M25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>30000</v>
       </c>
       <c r="I26">
-        <v>40000</v>
+        <v>0.1853732168674469</v>
       </c>
       <c r="J26">
-        <v>0.3009843826293945</v>
+        <v>0.1874610185623169</v>
       </c>
       <c r="K26">
-        <v>0.302109956741333</v>
+        <v>0.1066996082663536</v>
       </c>
       <c r="L26">
-        <v>0.1900999248027801</v>
-      </c>
-      <c r="M26">
-        <v>0.190864771604538</v>
-      </c>
-      <c r="N26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>0.1077614799141884</v>
+      </c>
+      <c r="M26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>40000</v>
       </c>
       <c r="I27">
-        <v>50000</v>
+        <v>0.1855436563491821</v>
       </c>
       <c r="J27">
-        <v>1.369324326515198</v>
+        <v>0.188333347439766</v>
       </c>
       <c r="K27">
-        <v>1.58485734462738</v>
+        <v>0.1085718274116516</v>
       </c>
       <c r="L27">
-        <v>0.5633760690689087</v>
-      </c>
-      <c r="M27">
-        <v>0.6471161842346191</v>
-      </c>
-      <c r="N27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>0.1099645271897316</v>
+      </c>
+      <c r="M27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>100000</v>
       </c>
       <c r="I28">
-        <v>50000</v>
+        <v>1.111705422401428</v>
       </c>
       <c r="J28">
-        <v>1.405500769615173</v>
+        <v>2.081872463226318</v>
       </c>
       <c r="K28">
-        <v>1.511763334274292</v>
+        <v>0.5927691459655762</v>
       </c>
       <c r="L28">
-        <v>0.5837810039520264</v>
-      </c>
-      <c r="M28">
-        <v>0.6225002408027649</v>
-      </c>
-      <c r="N28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>0.8807418942451477</v>
+      </c>
+      <c r="M28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>100000</v>
       </c>
       <c r="I29">
-        <v>60000</v>
+        <v>1.265536665916443</v>
       </c>
       <c r="J29">
-        <v>1.392964839935303</v>
+        <v>2.010904312133789</v>
       </c>
       <c r="K29">
-        <v>1.474447011947632</v>
+        <v>0.648542582988739</v>
       </c>
       <c r="L29">
-        <v>0.5669248700141907</v>
-      </c>
-      <c r="M29">
-        <v>0.5971564054489136</v>
-      </c>
-      <c r="N29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>0.8324878811836243</v>
+      </c>
+      <c r="M29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>200000</v>
       </c>
       <c r="I30">
-        <v>80000</v>
+        <v>1.258987188339233</v>
       </c>
       <c r="J30">
-        <v>1.412371277809143</v>
+        <v>1.948407411575317</v>
       </c>
       <c r="K30">
-        <v>1.479416847229004</v>
+        <v>0.6520174145698547</v>
       </c>
       <c r="L30">
-        <v>0.5545896291732788</v>
-      </c>
-      <c r="M30">
-        <v>0.5784268975257874</v>
-      </c>
-      <c r="N30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>0.8265775442123413</v>
+      </c>
+      <c r="M30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>200000</v>
       </c>
       <c r="I31">
-        <v>50000</v>
+        <v>1.396223425865173</v>
       </c>
       <c r="J31">
-        <v>1.280858159065247</v>
+        <v>1.866433143615723</v>
       </c>
       <c r="K31">
-        <v>1.571866273880005</v>
+        <v>0.6837925910949707</v>
       </c>
       <c r="L31">
-        <v>0.5020025968551636</v>
-      </c>
-      <c r="M31">
-        <v>0.5715242624282837</v>
-      </c>
-      <c r="N31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>0.7956121563911438</v>
+      </c>
+      <c r="M31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>100000</v>
       </c>
       <c r="I32">
-        <v>50000</v>
+        <v>1.151001334190369</v>
       </c>
       <c r="J32">
-        <v>1.381091356277466</v>
+        <v>1.684653282165527</v>
       </c>
       <c r="K32">
-        <v>1.577436804771423</v>
+        <v>0.5427826046943665</v>
       </c>
       <c r="L32">
-        <v>0.5347433686256409</v>
-      </c>
-      <c r="M32">
-        <v>0.5808306336402893</v>
-      </c>
-      <c r="N32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>0.6818851232528687</v>
+      </c>
+      <c r="M32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>100000</v>
       </c>
       <c r="I33">
-        <v>60000</v>
+        <v>1.228546738624573</v>
       </c>
       <c r="J33">
-        <v>1.424986124038696</v>
+        <v>1.889816522598266</v>
       </c>
       <c r="K33">
-        <v>1.523117899894714</v>
+        <v>0.5683732628822327</v>
       </c>
       <c r="L33">
-        <v>0.5621580481529236</v>
-      </c>
-      <c r="M33">
-        <v>0.5889738798141479</v>
-      </c>
-      <c r="N33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>0.6907216310501099</v>
+      </c>
+      <c r="M33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>200000</v>
       </c>
       <c r="I34">
-        <v>80000</v>
+        <v>1.301559209823608</v>
       </c>
       <c r="J34">
-        <v>1.425348401069641</v>
+        <v>1.774907350540161</v>
       </c>
       <c r="K34">
-        <v>1.526179552078247</v>
+        <v>0.5828215479850769</v>
       </c>
       <c r="L34">
-        <v>0.5523317456245422</v>
-      </c>
-      <c r="M34">
-        <v>0.5742737054824829</v>
-      </c>
-      <c r="N34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>0.6804893016815186</v>
+      </c>
+      <c r="M34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I35">
-        <v>10000</v>
+        <v>1.372922301292419</v>
       </c>
       <c r="J35">
-        <v>0.2588068842887878</v>
+        <v>1.667055487632752</v>
       </c>
       <c r="K35">
-        <v>0.2693620622158051</v>
+        <v>0.606275200843811</v>
       </c>
       <c r="L35">
-        <v>0.1721338629722595</v>
-      </c>
-      <c r="M35">
-        <v>0.1792676001787185</v>
-      </c>
-      <c r="N35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>0.6639804840087891</v>
+      </c>
+      <c r="M35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D36">
         <v>9</v>
       </c>
       <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I36">
-        <v>20000</v>
+        <v>0.2038433849811554</v>
       </c>
       <c r="J36">
-        <v>0.240572452545166</v>
+        <v>0.2068801820278168</v>
       </c>
       <c r="K36">
-        <v>0.2378727495670319</v>
+        <v>0.1269588619470597</v>
       </c>
       <c r="L36">
-        <v>0.1609509885311127</v>
-      </c>
-      <c r="M36">
-        <v>0.1590951681137085</v>
-      </c>
-      <c r="N36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>0.1288780272006989</v>
+      </c>
+      <c r="M36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
       <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I37">
-        <v>30000</v>
+        <v>0.1934687048196793</v>
       </c>
       <c r="J37">
-        <v>0.2323575317859649</v>
+        <v>0.1968681514263153</v>
       </c>
       <c r="K37">
-        <v>0.233847975730896</v>
+        <v>0.1179571002721786</v>
       </c>
       <c r="L37">
-        <v>0.1544671356678009</v>
-      </c>
-      <c r="M37">
-        <v>0.1552767753601074</v>
-      </c>
-      <c r="N37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>0.1196986883878708</v>
+      </c>
+      <c r="M37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D38">
         <v>9</v>
       </c>
       <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I38">
-        <v>40000</v>
+        <v>0.1999967396259308</v>
       </c>
       <c r="J38">
-        <v>0.2097567021846771</v>
+        <v>0.1999465078115464</v>
       </c>
       <c r="K38">
-        <v>0.2088469266891479</v>
+        <v>0.1227434873580932</v>
       </c>
       <c r="L38">
-        <v>0.1358418017625809</v>
-      </c>
-      <c r="M38">
-        <v>0.1350011229515075</v>
-      </c>
-      <c r="N38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>0.1227975860238075</v>
+      </c>
+      <c r="M38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I39">
-        <v>10000</v>
+        <v>0.1901568472385406</v>
       </c>
       <c r="J39">
-        <v>1.960571050643921</v>
+        <v>0.1918802708387375</v>
       </c>
       <c r="K39">
-        <v>1.908050298690796</v>
+        <v>0.1147938743233681</v>
       </c>
       <c r="L39">
-        <v>0.9066921472549438</v>
-      </c>
-      <c r="M39">
-        <v>0.9101401567459106</v>
-      </c>
-      <c r="N39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>0.1158123165369034</v>
+      </c>
+      <c r="M39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D40">
         <v>10</v>
       </c>
       <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I40">
-        <v>20000</v>
+        <v>1.945003151893616</v>
       </c>
       <c r="J40">
-        <v>2.085132598876953</v>
+        <v>1.918345808982849</v>
       </c>
       <c r="K40">
-        <v>2.08337926864624</v>
+        <v>0.9194000959396362</v>
       </c>
       <c r="L40">
-        <v>1.002095460891724</v>
-      </c>
-      <c r="M40">
-        <v>1.008879899978638</v>
-      </c>
-      <c r="N40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>0.9342007637023926</v>
+      </c>
+      <c r="M40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D41">
         <v>10</v>
       </c>
       <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I41">
-        <v>30000</v>
+        <v>2.050938367843628</v>
       </c>
       <c r="J41">
-        <v>2.028343200683594</v>
+        <v>2.055521726608276</v>
       </c>
       <c r="K41">
-        <v>2.028639554977417</v>
+        <v>0.9848912954330444</v>
       </c>
       <c r="L41">
-        <v>0.9447653889656068</v>
-      </c>
-      <c r="M41">
-        <v>0.946832835674286</v>
-      </c>
-      <c r="N41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>0.9960977435112</v>
+      </c>
+      <c r="M41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D42">
         <v>10</v>
       </c>
       <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I42">
-        <v>40000</v>
+        <v>2.012637615203857</v>
       </c>
       <c r="J42">
-        <v>1.984005928039551</v>
+        <v>2.033601760864258</v>
       </c>
       <c r="K42">
-        <v>1.987738370895386</v>
+        <v>0.9677084684371948</v>
       </c>
       <c r="L42">
-        <v>0.9705012440681458</v>
-      </c>
-      <c r="M42">
-        <v>0.9749662280082704</v>
-      </c>
-      <c r="N42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>0.9831897020339966</v>
+      </c>
+      <c r="M42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>20000</v>
+      </c>
+      <c r="I43">
+        <v>1.97123110294342</v>
       </c>
       <c r="J43">
-        <v>1.233824349729843</v>
+        <v>1.986234068870544</v>
       </c>
       <c r="K43">
-        <v>1.357822380127588</v>
+        <v>0.9565416574478148</v>
       </c>
       <c r="L43">
-        <v>0.7645135423199171</v>
-      </c>
-      <c r="M43">
-        <v>0.8625358425384447</v>
-      </c>
-      <c r="N43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>0.9664725065231324</v>
+      </c>
+      <c r="M43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>5000</v>
+      </c>
+      <c r="I44">
+        <v>0.2474360466003418</v>
       </c>
       <c r="J44">
-        <v>3.98973225355808</v>
+        <v>0.2490796148777008</v>
       </c>
       <c r="K44">
-        <v>3.863054209156559</v>
+        <v>0.1518932282924652</v>
       </c>
       <c r="L44">
-        <v>3.277443904642548</v>
-      </c>
-      <c r="M44">
-        <v>3.174425371108237</v>
-      </c>
-      <c r="N44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>0.1526305377483368</v>
+      </c>
+      <c r="M44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>10000</v>
+      </c>
+      <c r="I45">
+        <v>0.2187847197055817</v>
+      </c>
+      <c r="J45">
+        <v>0.2217658758163452</v>
       </c>
       <c r="K45">
-        <v>0.7071548871534311</v>
-      </c>
-      <c r="M45">
-        <v>0.5081766289410362</v>
-      </c>
-      <c r="N45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>0.1341830790042877</v>
+      </c>
+      <c r="L45">
+        <v>0.135734885931015</v>
+      </c>
+      <c r="M45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>70</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>10000</v>
+      </c>
+      <c r="I46">
+        <v>0.219086617231369</v>
+      </c>
+      <c r="J46">
+        <v>0.2198707312345505</v>
+      </c>
+      <c r="K46">
+        <v>0.1332479268312454</v>
+      </c>
+      <c r="L46">
+        <v>0.1336548328399658</v>
+      </c>
+      <c r="M46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>57</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>20000</v>
+      </c>
+      <c r="I47">
+        <v>0.2019460499286652</v>
+      </c>
+      <c r="J47">
+        <v>0.2038133144378662</v>
+      </c>
+      <c r="K47">
+        <v>0.1186081916093826</v>
+      </c>
+      <c r="L47">
+        <v>0.1196290031075477</v>
+      </c>
+      <c r="M47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>5000</v>
+      </c>
+      <c r="I48">
+        <v>1.951959013938904</v>
+      </c>
+      <c r="J48">
+        <v>1.91182017326355</v>
+      </c>
+      <c r="K48">
+        <v>0.9090539813041688</v>
+      </c>
+      <c r="L48">
+        <v>0.9150882959365844</v>
+      </c>
+      <c r="M48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>10000</v>
+      </c>
+      <c r="I49">
+        <v>2.054273128509521</v>
+      </c>
+      <c r="J49">
+        <v>2.049204349517822</v>
+      </c>
+      <c r="K49">
+        <v>0.9546052217483521</v>
+      </c>
+      <c r="L49">
+        <v>0.9596089124679564</v>
+      </c>
+      <c r="M49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>70</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>10000</v>
+      </c>
+      <c r="I50">
+        <v>2.019244909286499</v>
+      </c>
+      <c r="J50">
+        <v>2.021995782852173</v>
+      </c>
+      <c r="K50">
+        <v>0.9532355070114136</v>
+      </c>
+      <c r="L50">
+        <v>0.9567639231681824</v>
+      </c>
+      <c r="M50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>20000</v>
+      </c>
+      <c r="I51">
+        <v>1.974497199058533</v>
+      </c>
+      <c r="J51">
+        <v>1.980944991111756</v>
+      </c>
+      <c r="K51">
+        <v>0.9337247014045716</v>
+      </c>
+      <c r="L51">
+        <v>0.938510537147522</v>
+      </c>
+      <c r="M51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>62</v>
       </c>
-      <c r="K46">
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1.233824349729843</v>
+      </c>
+      <c r="J52">
+        <v>1.357822380127588</v>
+      </c>
+      <c r="K52">
+        <v>0.7645135423199171</v>
+      </c>
+      <c r="L52">
+        <v>0.8625358425384447</v>
+      </c>
+      <c r="M52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>3.98973225355808</v>
+      </c>
+      <c r="J53">
+        <v>3.863054209156559</v>
+      </c>
+      <c r="K53">
+        <v>3.277443904642548</v>
+      </c>
+      <c r="L53">
+        <v>3.174425371108237</v>
+      </c>
+      <c r="M53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.7071548871534311</v>
+      </c>
+      <c r="L54">
+        <v>0.5081766289410362</v>
+      </c>
+      <c r="M54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="J55">
         <v>0.6688095868566116</v>
       </c>
-      <c r="M46">
+      <c r="L55">
         <v>0.4229790817339437</v>
       </c>
-      <c r="N46" t="s">
-        <v>67</v>
+      <c r="M55" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
